--- a/data/b/cleaned_electricity_data.xlsx
+++ b/data/b/cleaned_electricity_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurulu Güç" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Elektrik Üretimi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kurulu Güç" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Elektrik Üretimi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>Toplam</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Column_19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -542,11 +547,15 @@
       <c r="E2" t="n">
         <v>27.4</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(2.2)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(0.1)</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -581,6 +590,7 @@
       <c r="R2" t="n">
         <v>29.8</v>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -598,11 +608,15 @@
       <c r="E3" t="n">
         <v>27.433</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(2.2)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(0.1)</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -637,6 +651,7 @@
       <c r="R3" t="n">
         <v>29.833</v>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -654,11 +669,15 @@
       <c r="E4" t="n">
         <v>27.743</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.9)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(0.1)</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -693,6 +712,7 @@
       <c r="R4" t="n">
         <v>30.957</v>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -710,11 +730,15 @@
       <c r="E5" t="n">
         <v>44.659</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(4.2)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(0.1)</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -749,6 +773,7 @@
       <c r="R5" t="n">
         <v>50.194</v>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -766,11 +791,15 @@
       <c r="E6" t="n">
         <v>44.771</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.835</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.055</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.834634000000003)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(0.055365999999996515)</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -805,6 +834,7 @@
       <c r="R6" t="n">
         <v>51.913</v>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -822,11 +852,15 @@
       <c r="E7" t="n">
         <v>50.42</v>
       </c>
-      <c r="F7" t="n">
-        <v>10.768</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.398</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(10.768490399999974)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(0.39750960000002566)</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -861,6 +895,7 @@
       <c r="R7" t="n">
         <v>63.443</v>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -878,11 +913,15 @@
       <c r="E8" t="n">
         <v>53.063</v>
       </c>
-      <c r="F8" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.742</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(11.260276400000024)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(0.741723599999977)</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -917,6 +956,7 @@
       <c r="R8" t="n">
         <v>68.024</v>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -934,11 +974,15 @@
       <c r="E9" t="n">
         <v>53.29</v>
       </c>
-      <c r="F9" t="n">
-        <v>16.769</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.618</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(16.768943999999983)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(1.6180560000000177)</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -973,6 +1017,7 @@
       <c r="R9" t="n">
         <v>74.636</v>
       </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -990,11 +1035,15 @@
       <c r="E10" t="n">
         <v>73.70099999999999</v>
       </c>
-      <c r="F10" t="n">
-        <v>17.381</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.241</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(17.381167599999923)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(2.2408324000000754)</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1029,6 +1078,7 @@
       <c r="R10" t="n">
         <v>98.291</v>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1046,11 +1096,15 @@
       <c r="E11" t="n">
         <v>74.874</v>
       </c>
-      <c r="F11" t="n">
-        <v>17.197</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.809</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(17.197157600000008)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(2.808842399999993)</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1085,6 +1139,7 @@
       <c r="R11" t="n">
         <v>100.262</v>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1102,11 +1157,15 @@
       <c r="E12" t="n">
         <v>78.342</v>
       </c>
-      <c r="F12" t="n">
-        <v>16.861</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.37</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(16.86051539999995)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(3.3704846000000512)</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1141,6 +1200,7 @@
       <c r="R12" t="n">
         <v>103.994</v>
       </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1158,11 +1218,15 @@
       <c r="E13" t="n">
         <v>85.592</v>
       </c>
-      <c r="F13" t="n">
-        <v>16.842</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.023</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(16.842228000000034)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(4.022771999999964)</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1197,6 +1261,7 @@
       <c r="R13" t="n">
         <v>112.514</v>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1214,11 +1279,15 @@
       <c r="E14" t="n">
         <v>91.35899999999999</v>
       </c>
-      <c r="F14" t="n">
-        <v>16.517</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.632</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(16.517368999999974)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(4.631631000000025)</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1253,6 +1322,7 @@
       <c r="R14" t="n">
         <v>119.16</v>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1270,11 +1340,15 @@
       <c r="E15" t="n">
         <v>106.788</v>
       </c>
-      <c r="F15" t="n">
-        <v>16.478</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.353</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(16.47803879999991)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(5.352961200000089)</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1309,6 +1383,7 @@
       <c r="R15" t="n">
         <v>136.76</v>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1326,11 +1401,15 @@
       <c r="E16" t="n">
         <v>124.284</v>
       </c>
-      <c r="F16" t="n">
-        <v>16.469</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.134</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(16.4685458)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(6.134454199999996)</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1365,6 +1444,7 @@
       <c r="R16" t="n">
         <v>155.431</v>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1382,11 +1462,15 @@
       <c r="E17" t="n">
         <v>131.414</v>
       </c>
-      <c r="F17" t="n">
-        <v>16.481</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.983</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(16.481113599999933)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(6.982886400000064)</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1421,6 +1505,7 @@
       <c r="R17" t="n">
         <v>163.591</v>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1438,11 +1523,15 @@
       <c r="E18" t="n">
         <v>166.749</v>
       </c>
-      <c r="F18" t="n">
-        <v>17.722</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.486000000000001</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(17.721849600000038)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(8.48615039999996)</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1477,6 +1566,7 @@
       <c r="R18" t="n">
         <v>202.518</v>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1533,6 +1623,7 @@
       <c r="R19" t="n">
         <v>217</v>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1589,6 +1680,7 @@
       <c r="R20" t="n">
         <v>222</v>
       </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1645,6 +1737,7 @@
       <c r="R21" t="n">
         <v>226.7</v>
       </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1701,6 +1794,7 @@
       <c r="R22" t="n">
         <v>236.4</v>
       </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1757,6 +1851,7 @@
       <c r="R23" t="n">
         <v>243.9</v>
       </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1813,6 +1908,7 @@
       <c r="R24" t="n">
         <v>246.1</v>
       </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1869,6 +1965,7 @@
       <c r="R25" t="n">
         <v>247.4</v>
       </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1925,6 +2022,7 @@
       <c r="R26" t="n">
         <v>251.4</v>
       </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1981,6 +2079,7 @@
       <c r="R27" t="n">
         <v>305.5</v>
       </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2037,6 +2136,7 @@
       <c r="R28" t="n">
         <v>381.8</v>
       </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2093,6 +2193,7 @@
       <c r="R29" t="n">
         <v>407.8</v>
       </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2149,6 +2250,7 @@
       <c r="R30" t="n">
         <v>423.2</v>
       </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2205,6 +2307,7 @@
       <c r="R31" t="n">
         <v>437.8</v>
       </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2261,6 +2364,7 @@
       <c r="R32" t="n">
         <v>499.5</v>
       </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2317,6 +2421,7 @@
       <c r="R33" t="n">
         <v>516.9</v>
       </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2373,6 +2478,7 @@
       <c r="R34" t="n">
         <v>611.6</v>
       </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2429,6 +2535,7 @@
       <c r="R35" t="n">
         <v>886.1</v>
       </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2485,6 +2592,7 @@
       <c r="R36" t="n">
         <v>939.4</v>
       </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2541,6 +2649,7 @@
       <c r="R37" t="n">
         <v>1030</v>
       </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2597,6 +2706,7 @@
       <c r="R38" t="n">
         <v>1161</v>
       </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2653,6 +2763,7 @@
       <c r="R39" t="n">
         <v>1272.4</v>
       </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2709,6 +2820,7 @@
       <c r="R40" t="n">
         <v>1323.9</v>
       </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2765,6 +2877,7 @@
       <c r="R41" t="n">
         <v>1370.8</v>
       </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2821,6 +2934,7 @@
       <c r="R42" t="n">
         <v>1381.1</v>
       </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2877,6 +2991,7 @@
       <c r="R43" t="n">
         <v>1418.3</v>
       </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2933,6 +3048,7 @@
       <c r="R44" t="n">
         <v>1490.5</v>
       </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2989,6 +3105,7 @@
       <c r="R45" t="n">
         <v>1644.3</v>
       </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3045,6 +3162,7 @@
       <c r="R46" t="n">
         <v>1962.2</v>
       </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3101,6 +3219,7 @@
       <c r="R47" t="n">
         <v>1966.6</v>
       </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3157,6 +3276,7 @@
       <c r="R48" t="n">
         <v>1967.2</v>
       </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3213,6 +3333,7 @@
       <c r="R49" t="n">
         <v>2234.9</v>
       </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3269,6 +3390,7 @@
       <c r="R50" t="n">
         <v>2577.9</v>
       </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3325,6 +3447,7 @@
       <c r="R51" t="n">
         <v>2711.3</v>
       </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3381,6 +3504,7 @@
       <c r="R52" t="n">
         <v>3192.5</v>
       </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3437,6 +3561,7 @@
       <c r="R53" t="n">
         <v>3732.1</v>
       </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3493,6 +3618,7 @@
       <c r="R54" t="n">
         <v>4186.6</v>
       </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3549,6 +3675,7 @@
       <c r="R55" t="n">
         <v>4364.2</v>
       </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3605,6 +3732,7 @@
       <c r="R56" t="n">
         <v>4727.2</v>
       </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3661,6 +3789,7 @@
       <c r="R57" t="n">
         <v>4868.7</v>
       </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3717,6 +3846,7 @@
       <c r="R58" t="n">
         <v>5118.7</v>
       </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3773,6 +3903,7 @@
       <c r="R59" t="n">
         <v>5118.7</v>
       </c>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3829,6 +3960,7 @@
       <c r="R60" t="n">
         <v>5537.6</v>
       </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3864,8 +3996,10 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M61" t="n">
         <v>3556.3</v>
@@ -3885,6 +4019,7 @@
       <c r="R61" t="n">
         <v>6638.6</v>
       </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3920,8 +4055,10 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M62" t="n">
         <v>3695.8</v>
@@ -3941,6 +4078,7 @@
       <c r="R62" t="n">
         <v>6935.1</v>
       </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3976,8 +4114,10 @@
       <c r="K63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="n">
-        <v>0</v>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M63" t="n">
         <v>4569.3</v>
@@ -3997,6 +4137,7 @@
       <c r="R63" t="n">
         <v>8461.6</v>
       </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4032,8 +4173,10 @@
       <c r="K64" t="n">
         <v>100</v>
       </c>
-      <c r="L64" t="n">
-        <v>0</v>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M64" t="n">
         <v>5229.3</v>
@@ -4053,6 +4196,7 @@
       <c r="R64" t="n">
         <v>9121.6</v>
       </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4088,8 +4232,10 @@
       <c r="K65" t="n">
         <v>400</v>
       </c>
-      <c r="L65" t="n">
-        <v>0</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M65" t="n">
         <v>6220.2</v>
@@ -4109,6 +4255,7 @@
       <c r="R65" t="n">
         <v>10115.2</v>
       </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4144,8 +4291,10 @@
       <c r="K66" t="n">
         <v>800</v>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M66" t="n">
         <v>7474.3</v>
@@ -4165,6 +4314,7 @@
       <c r="R66" t="n">
         <v>12495.1</v>
       </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4200,8 +4350,10 @@
       <c r="K67" t="n">
         <v>1555.2</v>
       </c>
-      <c r="L67" t="n">
-        <v>0</v>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M67" t="n">
         <v>8284.799999999999</v>
@@ -4221,6 +4373,7 @@
       <c r="R67" t="n">
         <v>14520.6</v>
       </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4256,8 +4409,10 @@
       <c r="K68" t="n">
         <v>2035.8</v>
       </c>
-      <c r="L68" t="n">
-        <v>0</v>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M68" t="n">
         <v>9193.4</v>
@@ -4277,6 +4432,7 @@
       <c r="R68" t="n">
         <v>15808.2</v>
       </c>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4312,8 +4468,10 @@
       <c r="K69" t="n">
         <v>2210</v>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M69" t="n">
         <v>9535.799999999999</v>
@@ -4333,6 +4491,7 @@
       <c r="R69" t="n">
         <v>16317.6</v>
       </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4350,17 +4509,25 @@
       <c r="E70" t="n">
         <v>5424.4</v>
       </c>
-      <c r="F70" t="n">
-        <v>1431.998</v>
-      </c>
-      <c r="G70" t="n">
-        <v>656.002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(1431.998157318899)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>(656.001842681101)</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="J70" t="n">
         <v>2088</v>
@@ -4389,6 +4556,7 @@
       <c r="R70" t="n">
         <v>17209.1</v>
       </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4406,17 +4574,25 @@
       <c r="E71" t="n">
         <v>5803.6</v>
       </c>
-      <c r="F71" t="n">
-        <v>1419.212</v>
-      </c>
-      <c r="G71" t="n">
-        <v>457.288</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>(1419.211988495228)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>(457.28801150477193)</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="J71" t="n">
         <v>1876.5</v>
@@ -4445,6 +4621,7 @@
       <c r="R71" t="n">
         <v>18716.1</v>
       </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4462,17 +4639,25 @@
       <c r="E72" t="n">
         <v>6013.1</v>
       </c>
-      <c r="F72" t="n">
-        <v>1449.77</v>
-      </c>
-      <c r="G72" t="n">
-        <v>464.23</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>(1449.76963146243)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>(464.23036853757003)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="J72" t="n">
         <v>1914</v>
@@ -4501,6 +4686,7 @@
       <c r="R72" t="n">
         <v>20337.6</v>
       </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4518,17 +4704,25 @@
       <c r="E73" t="n">
         <v>6213.8</v>
       </c>
-      <c r="F73" t="n">
-        <v>1460.798</v>
-      </c>
-      <c r="G73" t="n">
-        <v>465.402</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>(1460.7984951676722)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>(465.40150483232793)</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="J73" t="n">
         <v>1926.2</v>
@@ -4557,6 +4751,7 @@
       <c r="R73" t="n">
         <v>20859.8</v>
       </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4574,17 +4769,25 @@
       <c r="E74" t="n">
         <v>6778.4</v>
       </c>
-      <c r="F74" t="n">
-        <v>1187.109</v>
-      </c>
-      <c r="G74" t="n">
-        <v>210.991</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>(1187.1089276476241)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>(210.99107235237602)</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="J74" t="n">
         <v>1398.1</v>
@@ -4613,6 +4816,7 @@
       <c r="R74" t="n">
         <v>20954.3</v>
       </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4630,17 +4834,25 @@
       <c r="E75" t="n">
         <v>6389.3</v>
       </c>
-      <c r="F75" t="n">
-        <v>1551.326</v>
-      </c>
-      <c r="G75" t="n">
-        <v>290.874</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>(1551.3263157894737)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>(290.87368421052633)</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="J75" t="n">
         <v>1842.2</v>
@@ -4669,6 +4881,7 @@
       <c r="R75" t="n">
         <v>21249.4</v>
       </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4686,17 +4899,25 @@
       <c r="E76" t="n">
         <v>6429.9</v>
       </c>
-      <c r="F76" t="n">
-        <v>1527.828</v>
-      </c>
-      <c r="G76" t="n">
-        <v>285.514</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17.991</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.867</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>(1527.8276185069544)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>(285.514334374113)</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(17.991314220834518)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>(5.866732898098212)</t>
+        </is>
       </c>
       <c r="J76" t="n">
         <v>1837.4</v>
@@ -4725,6 +4946,7 @@
       <c r="R76" t="n">
         <v>21891.9</v>
       </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4742,17 +4964,25 @@
       <c r="E77" t="n">
         <v>6548.9</v>
       </c>
-      <c r="F77" t="n">
-        <v>1555.746</v>
-      </c>
-      <c r="G77" t="n">
-        <v>278.292</v>
-      </c>
-      <c r="H77" t="n">
-        <v>43.42</v>
-      </c>
-      <c r="I77" t="n">
-        <v>67.542</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>(1555.746083550914)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>(278.2924281984334)</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(43.41971279373368)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>(67.54177545691905)</t>
+        </is>
       </c>
       <c r="J77" t="n">
         <v>1945</v>
@@ -4781,6 +5011,7 @@
       <c r="R77" t="n">
         <v>23354</v>
       </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4798,17 +5029,25 @@
       <c r="E78" t="n">
         <v>6686.9</v>
       </c>
-      <c r="F78" t="n">
-        <v>1528.286</v>
-      </c>
-      <c r="G78" t="n">
-        <v>290.517</v>
-      </c>
-      <c r="H78" t="n">
-        <v>42.66</v>
-      </c>
-      <c r="I78" t="n">
-        <v>90.636</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>(1528.2863173594449)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>(290.5174437455418)</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(42.65985993126257)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>(90.63637896375073)</t>
+        </is>
       </c>
       <c r="J78" t="n">
         <v>1952.1</v>
@@ -4837,6 +5076,7 @@
       <c r="R78" t="n">
         <v>26119.3</v>
       </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4854,17 +5094,25 @@
       <c r="E79" t="n">
         <v>6988.9</v>
       </c>
-      <c r="F79" t="n">
-        <v>1586.814</v>
-      </c>
-      <c r="G79" t="n">
-        <v>288.843</v>
-      </c>
-      <c r="H79" t="n">
-        <v>29.828</v>
-      </c>
-      <c r="I79" t="n">
-        <v>90.114</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>(1586.8141271442987)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>(288.84346619576183)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(29.828279515640766)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>(90.11412714429868)</t>
+        </is>
       </c>
       <c r="J79" t="n">
         <v>1995.6</v>
@@ -4893,6 +5141,7 @@
       <c r="R79" t="n">
         <v>27264.1</v>
       </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4910,17 +5159,25 @@
       <c r="E80" t="n">
         <v>6990.7</v>
       </c>
-      <c r="F80" t="n">
-        <v>1975.189</v>
-      </c>
-      <c r="G80" t="n">
-        <v>289.205</v>
-      </c>
-      <c r="H80" t="n">
-        <v>29.473</v>
-      </c>
-      <c r="I80" t="n">
-        <v>161.734</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>(1975.1885577115424)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>(289.2047409481896)</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(29.473094618923785)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>(161.73360672134424)</t>
+        </is>
       </c>
       <c r="J80" t="n">
         <v>2455.6</v>
@@ -4949,6 +5206,7 @@
       <c r="R80" t="n">
         <v>28332.4</v>
       </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4966,17 +5224,25 @@
       <c r="E81" t="n">
         <v>6982.9</v>
       </c>
-      <c r="F81" t="n">
-        <v>2390.678</v>
-      </c>
-      <c r="G81" t="n">
-        <v>280.241</v>
-      </c>
-      <c r="H81" t="n">
-        <v>28.56</v>
-      </c>
-      <c r="I81" t="n">
-        <v>156.721</v>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>(2390.6781934838764)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>(280.2412715607033)</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(28.55962003166403)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>(156.72091492375634)</t>
+        </is>
       </c>
       <c r="J81" t="n">
         <v>2856.2</v>
@@ -5005,6 +5271,7 @@
       <c r="R81" t="n">
         <v>31845.8</v>
       </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5022,17 +5289,25 @@
       <c r="E82" t="n">
         <v>8238.9</v>
       </c>
-      <c r="F82" t="n">
-        <v>2731.955</v>
-      </c>
-      <c r="G82" t="n">
-        <v>275.996</v>
-      </c>
-      <c r="H82" t="n">
-        <v>35.042</v>
-      </c>
-      <c r="I82" t="n">
-        <v>160.207</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>(2731.9550417093515)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>(275.9964876335431)</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(35.04159227279379)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>(160.2068783843114)</t>
+        </is>
       </c>
       <c r="J82" t="n">
         <v>3203.2</v>
@@ -5061,6 +5336,7 @@
       <c r="R82" t="n">
         <v>35587</v>
       </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5078,17 +5354,25 @@
       <c r="E83" t="n">
         <v>8295.799999999999</v>
       </c>
-      <c r="F83" t="n">
-        <v>2887.823</v>
-      </c>
-      <c r="G83" t="n">
-        <v>268.309</v>
-      </c>
-      <c r="H83" t="n">
-        <v>13.015</v>
-      </c>
-      <c r="I83" t="n">
-        <v>46.053</v>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>(2887.8232601588043)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>(268.3087653744356)</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(13.01497742487934)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>(46.05299704188074)</t>
+        </is>
       </c>
       <c r="J83" t="n">
         <v>3215.2</v>
@@ -5117,6 +5401,7 @@
       <c r="R83" t="n">
         <v>36824</v>
       </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5134,17 +5419,25 @@
       <c r="E84" t="n">
         <v>9116.799999999999</v>
       </c>
-      <c r="F84" t="n">
-        <v>2662.468</v>
-      </c>
-      <c r="G84" t="n">
-        <v>255.104</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>43.128</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>(2662.4676976493597)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>(255.1044139362254)</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>(43.12788841441513)</t>
+        </is>
       </c>
       <c r="J84" t="n">
         <v>2960.7</v>
@@ -5173,6 +5466,7 @@
       <c r="R84" t="n">
         <v>38843.5</v>
       </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5190,17 +5484,25 @@
       <c r="E85" t="n">
         <v>10196.8</v>
       </c>
-      <c r="F85" t="n">
-        <v>2526.223</v>
-      </c>
-      <c r="G85" t="n">
-        <v>299.715</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>25.462</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>(2526.222607969956)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>(299.71527644481534)</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(25.462115585228457)</t>
+        </is>
       </c>
       <c r="J85" t="n">
         <v>2851.4</v>
@@ -5229,6 +5531,7 @@
       <c r="R85" t="n">
         <v>40564.8</v>
       </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5246,17 +5549,25 @@
       <c r="E86" t="n">
         <v>10197.351</v>
       </c>
-      <c r="F86" t="n">
-        <v>2175.403</v>
-      </c>
-      <c r="G86" t="n">
-        <v>253.331</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26.266</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>(2175.4034596540346)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>(253.33066693330667)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>(26.26587341265873)</t>
+        </is>
       </c>
       <c r="J86" t="n">
         <v>2455</v>
@@ -5285,6 +5596,7 @@
       <c r="R86" t="n">
         <v>40835.7</v>
       </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5302,17 +5614,25 @@
       <c r="E87" t="n">
         <v>10190.96</v>
       </c>
-      <c r="F87" t="n">
-        <v>2229.46</v>
-      </c>
-      <c r="G87" t="n">
-        <v>33.252</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>26.907</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>(2229.4595304816457)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>(33.252383829708144)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>(26.907085688646163)</t>
+        </is>
       </c>
       <c r="J87" t="n">
         <v>2289.619</v>
@@ -5341,6 +5661,7 @@
       <c r="R87" t="n">
         <v>41817.197</v>
       </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5358,17 +5679,25 @@
       <c r="E88" t="n">
         <v>10590</v>
       </c>
-      <c r="F88" t="n">
-        <v>2071.903</v>
-      </c>
-      <c r="G88" t="n">
-        <v>33.252</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>26.817</v>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>(2071.902877806238)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>(33.25183276518005)</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>(26.81728942858219)</t>
+        </is>
       </c>
       <c r="J88" t="n">
         <v>2132</v>
@@ -5397,6 +5726,7 @@
       <c r="R88" t="n">
         <v>44761.172</v>
       </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5414,17 +5744,25 @@
       <c r="E89" t="n">
         <v>11950</v>
       </c>
-      <c r="F89" t="n">
-        <v>1989.498</v>
-      </c>
-      <c r="G89" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>21.702</v>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>(1989.4983995481077)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>(34.79984936923367)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(21.70175108265863)</t>
+        </is>
       </c>
       <c r="J89" t="n">
         <v>2046</v>
@@ -5453,6 +5791,7 @@
       <c r="R89" t="n">
         <v>49524.1</v>
       </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5470,17 +5809,25 @@
       <c r="E90" t="n">
         <v>12550</v>
       </c>
-      <c r="F90" t="n">
-        <v>1686.119</v>
-      </c>
-      <c r="G90" t="n">
-        <v>85.45399999999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.426</v>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>(1686.119347892956)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>(85.45447554598584)</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>(6.426176561058136)</t>
+        </is>
       </c>
       <c r="J90" t="n">
         <v>1778</v>
@@ -5509,6 +5856,7 @@
       <c r="R90" t="n">
         <v>52911.1</v>
       </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5526,17 +5874,25 @@
       <c r="E91" t="n">
         <v>12576</v>
       </c>
-      <c r="F91" t="n">
-        <v>1792.641</v>
-      </c>
-      <c r="G91" t="n">
-        <v>82.164</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>9.195</v>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>(1792.6414772576911)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>(82.1635323544767)</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>(9.194990387832108)</t>
+        </is>
       </c>
       <c r="J91" t="n">
         <v>1884</v>
@@ -5565,6 +5921,7 @@
       <c r="R91" t="n">
         <v>57059.407</v>
       </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5582,17 +5939,25 @@
       <c r="E92" t="n">
         <v>12606</v>
       </c>
-      <c r="F92" t="n">
-        <v>1174.016</v>
-      </c>
-      <c r="G92" t="n">
-        <v>47.137</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7.847</v>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>(1174.015784617351)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>(47.13705846637569)</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>(7.847156916273229)</t>
+        </is>
       </c>
       <c r="J92" t="n">
         <v>1229</v>
@@ -5621,6 +5986,7 @@
       <c r="R92" t="n">
         <v>64007.5</v>
       </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5638,17 +6004,25 @@
       <c r="E93" t="n">
         <v>14814</v>
       </c>
-      <c r="F93" t="n">
-        <v>1133.442</v>
-      </c>
-      <c r="G93" t="n">
-        <v>37.901</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9.657</v>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>(1133.442092695105)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>(37.9010456239372)</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>(9.65686168095807)</t>
+        </is>
       </c>
       <c r="J93" t="n">
         <v>1181</v>
@@ -5677,6 +6051,7 @@
       <c r="R93" t="n">
         <v>69519.77</v>
       </c>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5694,17 +6069,25 @@
       <c r="E94" t="n">
         <v>15521.5</v>
       </c>
-      <c r="F94" t="n">
-        <v>1066.871</v>
-      </c>
-      <c r="G94" t="n">
-        <v>27.091</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11.438</v>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>(1066.87107120007)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>(27.091113168274994)</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>(11.437815631655187)</t>
+        </is>
       </c>
       <c r="J94" t="n">
         <v>1105.4</v>
@@ -5733,6 +6116,7 @@
       <c r="R94" t="n">
         <v>73146.74099999999</v>
       </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5750,17 +6134,25 @@
       <c r="E95" t="n">
         <v>17498.944</v>
       </c>
-      <c r="F95" t="n">
-        <v>626.841</v>
-      </c>
-      <c r="G95" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8.404999999999999</v>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>(626.8410146044932)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>(9.76043417116021)</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>(8.404551224346484)</t>
+        </is>
       </c>
       <c r="J95" t="n">
         <v>645.006</v>
@@ -5789,6 +6181,7 @@
       <c r="R95" t="n">
         <v>78497.382</v>
       </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5806,17 +6199,25 @@
       <c r="E96" t="n">
         <v>18666</v>
       </c>
-      <c r="F96" t="n">
-        <v>966.539</v>
-      </c>
-      <c r="G96" t="n">
-        <v>3.243</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16.217</v>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>(966.5394736842105)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>(3.2434210526315788)</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>(16.217105263157894)</t>
+        </is>
       </c>
       <c r="J96" t="n">
         <v>986</v>
@@ -5845,6 +6246,7 @@
       <c r="R96" t="n">
         <v>85200.03200000001</v>
       </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5901,6 +6303,7 @@
       <c r="R97" t="n">
         <v>88550.77899999999</v>
       </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5957,6 +6360,7 @@
       <c r="R98" t="n">
         <v>91266.992</v>
       </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6013,6 +6417,7 @@
       <c r="R99" t="n">
         <v>95890.607</v>
       </c>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6069,6 +6474,7 @@
       <c r="R100" t="n">
         <v>99819.613</v>
       </c>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6125,6 +6531,7 @@
       <c r="R101" t="n">
         <v>103809.259</v>
       </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6181,6 +6588,7 @@
       <c r="R102" t="n">
         <v>110913.977</v>
       </c>
+      <c r="S102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6297,23 +6705,33 @@
       <c r="A2" t="n">
         <v>1923</v>
       </c>
-      <c r="B2" t="n">
-        <v>42.946</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.172</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(42.946091587623194)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(0.1724742634041121)</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>43.119</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.012</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(43.118565851027306)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(1.1696198074829682)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(0.011814341489726952)</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -6321,8 +6739,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.181</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>(1.1814341489726952)</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6353,23 +6773,33 @@
       <c r="A3" t="n">
         <v>1924</v>
       </c>
-      <c r="B3" t="n">
-        <v>42.986</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.173</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(42.986064940012064)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(0.17263479895587608)</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>43.159</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.229</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.012</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(43.15869973896794)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(1.2288872584217345)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(0.012413002610320552)</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -6377,8 +6807,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.241</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>(1.2413002610320552)</t>
+        </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6409,23 +6841,33 @@
       <c r="A4" t="n">
         <v>1925</v>
       </c>
-      <c r="B4" t="n">
-        <v>43.467</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.175</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(43.467257830307325)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(0.17456730052332858)</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>43.642</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.304</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.013</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(43.641825130830654)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(1.3043972557491392)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(0.013175729856051912)</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -6433,14 +6875,18 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.318</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>(1.3175729856051912)</t>
+        </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.141</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>(0.140601883564157)</t>
+        </is>
       </c>
       <c r="M4" t="n">
         <v>45.1</v>
@@ -6465,23 +6911,33 @@
       <c r="A5" t="n">
         <v>1926</v>
       </c>
-      <c r="B5" t="n">
-        <v>62.87</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.252</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(62.869553730582695)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(0.252488167592702)</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>63.122</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(63.1220418981754)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(1.9803925924122177)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(0.02000396557992139)</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -6489,14 +6945,18 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>(2.000396557992139)</t>
+        </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.378</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>(0.3775615438324669)</t>
+        </is>
       </c>
       <c r="M5" t="n">
         <v>65.5</v>
@@ -6521,23 +6981,33 @@
       <c r="A6" t="n">
         <v>1927</v>
       </c>
-      <c r="B6" t="n">
-        <v>66.649</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.268</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(66.64895626696848)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(0.2676664910320028)</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>66.917</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.205</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.022</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(66.91662275800049)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(2.2051121374321863)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(0.022260368841431306)</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -6545,14 +7015,18 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.226</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>(2.2260368841431304)</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.5570000000000001</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>(0.5573403578563907)</t>
+        </is>
       </c>
       <c r="M6" t="n">
         <v>69.7</v>
@@ -6577,23 +7051,33 @@
       <c r="A7" t="n">
         <v>1928</v>
       </c>
-      <c r="B7" t="n">
-        <v>84.80800000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.341</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(84.8082972639365)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(0.34059557134111174)</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>85.149</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.867</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.106</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(85.1488928352776)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(2.8674630560240413)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(0.10584994275659758)</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6601,14 +7085,18 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.973</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>(2.973312998780639)</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.878</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>(0.8777941659417403)</t>
+        </is>
       </c>
       <c r="M7" t="n">
         <v>89</v>
@@ -6633,23 +7121,33 @@
       <c r="A8" t="n">
         <v>1929</v>
       </c>
-      <c r="B8" t="n">
-        <v>92.32299999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.371</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(92.32278652974524)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(0.3707742430913612)</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>92.694</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.188</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.21</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(92.6935607728366)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(3.18764464544468)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(0.20997275537036314)</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -6657,14 +7155,18 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.398</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>(3.3976174008150433)</t>
+        </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.109</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>(1.1088218263483565)</t>
+        </is>
       </c>
       <c r="M8" t="n">
         <v>97.2</v>
@@ -6689,23 +7191,33 @@
       <c r="A9" t="n">
         <v>1930</v>
       </c>
-      <c r="B9" t="n">
-        <v>98.861</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.397</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(98.86125846596647)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(0.39703316652999376)</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>99.258</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.483</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.336</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(99.25829163249647)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(3.482970718910048)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(0.3360761220000964)</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -6713,14 +7225,18 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.819</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>(3.8190468409101443)</t>
+        </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.323</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>(1.3226615265933985)</t>
+        </is>
       </c>
       <c r="M9" t="n">
         <v>104.4</v>
@@ -6745,23 +7261,33 @@
       <c r="A10" t="n">
         <v>1931</v>
       </c>
-      <c r="B10" t="n">
-        <v>108.115</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.434</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(108.11516869804072)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(0.43419746465077935)</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
-        <v>108.549</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.883</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.501</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(108.5493661626915)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(3.883420681222757)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(0.500662273420248)</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -6769,14 +7295,18 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.384</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>(4.384082954643005)</t>
+        </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.567</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>(1.5665508826655132)</t>
+        </is>
       </c>
       <c r="M10" t="n">
         <v>114.5</v>
@@ -6801,23 +7331,33 @@
       <c r="A11" t="n">
         <v>1932</v>
       </c>
-      <c r="B11" t="n">
-        <v>120.156</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.483</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(120.15590688648341)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(0.4825538429176106)</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>120.638</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.396</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.718</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(120.63846072940102)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(4.396397454347902)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(0.7180714315849739)</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6825,14 +7365,18 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.114</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>(5.114468885932876)</t>
+        </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.847</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>(1.8470703846660852)</t>
+        </is>
       </c>
       <c r="M11" t="n">
         <v>127.6</v>
@@ -6857,23 +7401,33 @@
       <c r="A12" t="n">
         <v>1933</v>
       </c>
-      <c r="B12" t="n">
-        <v>138.906</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5580000000000001</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(138.9057827710063)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(0.55785454928116)</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>139.464</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5.172</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.034</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>(139.46363732028746)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(5.1724049649961374)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(1.0339844818434991)</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -6881,14 +7435,18 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.206</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(6.206389446839637)</t>
+        </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="n">
-        <v>2.23</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>(2.2299732328728865)</t>
+        </is>
       </c>
       <c r="M12" t="n">
         <v>147.9</v>
@@ -6913,23 +7471,33 @@
       <c r="A13" t="n">
         <v>1934</v>
       </c>
-      <c r="B13" t="n">
-        <v>177.709</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.714</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(177.7089606995929)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(0.7136906052192558)</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
-        <v>178.423</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.728</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.607</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>(178.42265130481215)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(6.727790514149737)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(1.6069350980278185)</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6937,14 +7505,18 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>8.335000000000001</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(8.334725612177555)</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="n">
-        <v>2.943</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>(2.942623083010293)</t>
+        </is>
       </c>
       <c r="M13" t="n">
         <v>189.7</v>
@@ -6969,23 +7541,33 @@
       <c r="A14" t="n">
         <v>1935</v>
       </c>
-      <c r="B14" t="n">
-        <v>182.743</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10.431</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(182.74306500912837)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(10.431422315531643)</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>193.174</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.398</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.074</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>(193.17448732466002)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(7.397847985562033)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(2.0744285644533886)</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -6993,14 +7575,18 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9.472</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(9.472276550015422)</t>
+        </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="n">
-        <v>3.253</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>(3.253236125324566)</t>
+        </is>
       </c>
       <c r="M14" t="n">
         <v>205.9</v>
@@ -7025,23 +7611,33 @@
       <c r="A15" t="n">
         <v>1936</v>
       </c>
-      <c r="B15" t="n">
-        <v>196.278</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11.204</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(196.27799927550998)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(11.204029556953003)</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>207.482</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8.061</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.619</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>(207.482028832463)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(8.060839253311013)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(2.618598019226158)</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -7049,14 +7645,18 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>10.679</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>(10.679437272537172)</t>
+        </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="n">
-        <v>3.539</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>(3.538533894999807)</t>
+        </is>
       </c>
       <c r="M15" t="n">
         <v>221.7</v>
@@ -7081,23 +7681,33 @@
       <c r="A16" t="n">
         <v>1937</v>
       </c>
-      <c r="B16" t="n">
-        <v>237.346</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.048</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(237.34557894469393)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(24.048230465761936)</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
-        <v>261.394</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.833</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>(261.39380941045584)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(10.290006057106602)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(3.8329778258286167)</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -7105,14 +7715,18 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14.123</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(14.12298388293522)</t>
+        </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
-        <v>4.483</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>(4.483206706608904)</t>
+        </is>
       </c>
       <c r="M16" t="n">
         <v>280</v>
@@ -7149,11 +7763,15 @@
       <c r="E17" t="n">
         <v>267</v>
       </c>
-      <c r="F17" t="n">
-        <v>21.283</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.016999999999999</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(21.282719999999916)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(9.017280000000083)</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -7205,11 +7823,15 @@
       <c r="E18" t="n">
         <v>305.21</v>
       </c>
-      <c r="F18" t="n">
-        <v>19.065</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.130000000000001</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(19.065459000000043)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(9.129540999999959)</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -7261,11 +7883,15 @@
       <c r="E19" t="n">
         <v>340.375</v>
       </c>
-      <c r="F19" t="n">
-        <v>17.37</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.395</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(17.369767441860464)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(6.395232558139535)</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -7317,11 +7943,15 @@
       <c r="E20" t="n">
         <v>358.034</v>
       </c>
-      <c r="F20" t="n">
-        <v>14.291</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6.724</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(14.291499227202474)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(6.723500772797527)</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -7373,11 +8003,15 @@
       <c r="E21" t="n">
         <v>358.002</v>
       </c>
-      <c r="F21" t="n">
-        <v>11.378</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6.568</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(11.377867435158498)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(6.5681325648414965)</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -7429,11 +8063,15 @@
       <c r="E22" t="n">
         <v>396.284</v>
       </c>
-      <c r="F22" t="n">
-        <v>12.692</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7.962</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(12.692402234636871)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(7.96159776536313)</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -7485,11 +8123,15 @@
       <c r="E23" t="n">
         <v>431.1</v>
       </c>
-      <c r="F23" t="n">
-        <v>13.847</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10.353</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(13.846553966189855)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(10.353446033810142)</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -7541,11 +8183,15 @@
       <c r="E24" t="n">
         <v>467.1</v>
       </c>
-      <c r="F24" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="G24" t="n">
-        <v>10.22</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(12.980253164556961)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(10.219746835443036)</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -7597,11 +8243,15 @@
       <c r="E25" t="n">
         <v>493.5</v>
       </c>
-      <c r="F25" t="n">
-        <v>15.492</v>
-      </c>
-      <c r="G25" t="n">
-        <v>12.408</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(15.492211055276385)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>(12.407788944723618)</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -7653,11 +8303,15 @@
       <c r="E26" t="n">
         <v>549.6</v>
       </c>
-      <c r="F26" t="n">
-        <v>19.499</v>
-      </c>
-      <c r="G26" t="n">
-        <v>15.701</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(19.49928057553957)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>(15.700719424460432)</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -7709,11 +8363,15 @@
       <c r="E27" t="n">
         <v>593</v>
       </c>
-      <c r="F27" t="n">
-        <v>18.926</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20.074</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(18.926470588235293)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(20.073529411764703)</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -7765,11 +8423,15 @@
       <c r="E28" t="n">
         <v>641.7</v>
       </c>
-      <c r="F28" t="n">
-        <v>21.402</v>
-      </c>
-      <c r="G28" t="n">
-        <v>26.498</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(21.402127659574468)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(26.49787234042553)</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -7821,11 +8483,15 @@
       <c r="E29" t="n">
         <v>677.8</v>
       </c>
-      <c r="F29" t="n">
-        <v>25.724</v>
-      </c>
-      <c r="G29" t="n">
-        <v>34.076</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(25.723736075407025)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(34.076263924592965)</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -7877,11 +8543,15 @@
       <c r="E30" t="n">
         <v>743.2</v>
       </c>
-      <c r="F30" t="n">
-        <v>32.944</v>
-      </c>
-      <c r="G30" t="n">
-        <v>42.256</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(32.94355518112889)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>(42.2564448188711)</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -7933,11 +8603,15 @@
       <c r="E31" t="n">
         <v>829.8</v>
       </c>
-      <c r="F31" t="n">
-        <v>38.837</v>
-      </c>
-      <c r="G31" t="n">
-        <v>50.563</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(38.83709273182957)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(50.562907268170434)</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -7989,11 +8663,15 @@
       <c r="E32" t="n">
         <v>980.8</v>
       </c>
-      <c r="F32" t="n">
-        <v>42.15</v>
-      </c>
-      <c r="G32" t="n">
-        <v>64.45</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(42.14953271028037)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(64.45046728971963)</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -8045,11 +8723,15 @@
       <c r="E33" t="n">
         <v>1142.6</v>
       </c>
-      <c r="F33" t="n">
-        <v>56.09</v>
-      </c>
-      <c r="G33" t="n">
-        <v>81.20999999999999</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(56.08973463687152)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(81.2102653631285)</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -8101,11 +8783,15 @@
       <c r="E34" t="n">
         <v>1292.5</v>
       </c>
-      <c r="F34" t="n">
-        <v>56.503</v>
-      </c>
-      <c r="G34" t="n">
-        <v>101.897</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(56.502705687465486)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>(101.89729431253451)</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -8157,11 +8843,15 @@
       <c r="E35" t="n">
         <v>1428.5</v>
       </c>
-      <c r="F35" t="n">
-        <v>77.751</v>
-      </c>
-      <c r="G35" t="n">
-        <v>108.749</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(77.75091324200913)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>(108.74908675799087)</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -8213,11 +8903,15 @@
       <c r="E36" t="n">
         <v>1535.1</v>
       </c>
-      <c r="F36" t="n">
-        <v>72.89100000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>102.909</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(72.8907356948229)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>(102.90926430517713)</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -8269,11 +8963,15 @@
       <c r="E37" t="n">
         <v>1403.7</v>
       </c>
-      <c r="F37" t="n">
-        <v>75.35599999999999</v>
-      </c>
-      <c r="G37" t="n">
-        <v>123.144</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(75.35571725571725)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>(123.14428274428273)</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -8325,11 +9023,15 @@
       <c r="E38" t="n">
         <v>1633</v>
       </c>
-      <c r="F38" t="n">
-        <v>74.821</v>
-      </c>
-      <c r="G38" t="n">
-        <v>150.379</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(74.82081513828237)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>(150.3791848617176)</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -9631,8 +10333,10 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M61" t="n">
         <v>12384.8</v>
@@ -9687,8 +10391,10 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M62" t="n">
         <v>16004.1</v>
@@ -9743,8 +10449,10 @@
       <c r="K63" t="n">
         <v>0</v>
       </c>
-      <c r="L63" t="n">
-        <v>0</v>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M63" t="n">
         <v>17165.1</v>
@@ -9799,8 +10507,10 @@
       <c r="K64" t="n">
         <v>58.2</v>
       </c>
-      <c r="L64" t="n">
-        <v>0</v>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M64" t="n">
         <v>22168</v>
@@ -9855,8 +10565,10 @@
       <c r="K65" t="n">
         <v>1340.7</v>
       </c>
-      <c r="L65" t="n">
-        <v>0</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M65" t="n">
         <v>27778.6</v>
@@ -9911,8 +10623,10 @@
       <c r="K66" t="n">
         <v>2528.1</v>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M66" t="n">
         <v>25677.2</v>
@@ -9967,8 +10681,10 @@
       <c r="K67" t="n">
         <v>3239.5</v>
       </c>
-      <c r="L67" t="n">
-        <v>0</v>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M67" t="n">
         <v>19030.8</v>
@@ -10023,8 +10739,10 @@
       <c r="K68" t="n">
         <v>9524</v>
       </c>
-      <c r="L68" t="n">
-        <v>0</v>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M68" t="n">
         <v>34041</v>
@@ -10079,8 +10797,10 @@
       <c r="K69" t="n">
         <v>10192.3</v>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>(0)</t>
+        </is>
       </c>
       <c r="M69" t="n">
         <v>34315.3</v>
@@ -11772,7 +12492,7 @@
         <v>24828.222</v>
       </c>
       <c r="P99" t="n">
-        <v>10027.696</v>
+        <v>10027.697</v>
       </c>
       <c r="Q99" t="n">
         <v>10950.18</v>
